--- a/Project_Design/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
+    <sheet name="사용자 요구사항 분석서" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -996,6 +996,60 @@
   </si>
   <si>
     <t>사이트맵</t>
+  </si>
+  <si>
+    <t>-회원가입을 통해 서비스를 이용할 수 있도록 함</t>
+  </si>
+  <si>
+    <t>Men-Meet 요구사항 분석서</t>
+  </si>
+  <si>
+    <t>-공지 사항이 있다면 메인페이지에서 조회가 가능해야 함</t>
+  </si>
+  <si>
+    <t>-로그인을 통해 서비스를 이용할 수 있게 함</t>
+  </si>
+  <si>
+    <t>사용자 - WEB</t>
+  </si>
+  <si>
+    <t>사용자 - 메타버스</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>문자채팅</t>
+  </si>
+  <si>
+    <t>스페이스 삭제</t>
+  </si>
+  <si>
+    <t>멘토링 스페이스삭제</t>
+  </si>
+  <si>
+    <t>멘토링 스페이스 삭제</t>
+  </si>
+  <si>
+    <t>-멘토링이 종료된다면 만들어진 공간을 서버에서 삭제</t>
+  </si>
+  <si>
+    <t>-아이디는 D10</t>
+  </si>
+  <si>
+    <t>-아이디는 영문과 숫자를 포함한 12자 이내</t>
+  </si>
+  <si>
+    <t>-비밀번호는 영문자,숫자,특수기호를 포함하여 조합</t>
+  </si>
+  <si>
+    <t>-멘토를 월하는 카테고리별로 찾을 수 있도록 구성함</t>
+  </si>
+  <si>
+    <t>-멘토를 원하는 카테고리별로 찾을 수 있도록 구성함</t>
+  </si>
+  <si>
+    <t>-칠판 / 메모장에서 사용하는 펜으로, 굵기,색상 등을 변경할 수 있도록 함</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1277,7 @@
       <color theme="0"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1497,8 +1551,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1843,6 +1903,49 @@
         <color theme="1"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1993,7 +2096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2623,6 +2726,150 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="44" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="36" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="36" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="36" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="64" fontId="34" fillId="41" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="34" fillId="40" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="34" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="34" fillId="41" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="46" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="46" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="46" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="46" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="46" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="46" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="44" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="44" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="34" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2944,8 +3191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53:G53"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2954,7 +3201,7 @@
     <col min="2" max="2" style="81" width="16.62999916" customWidth="1" outlineLevel="0"/>
     <col min="3" max="4" style="81" width="32.25499916" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="81" width="20.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="81" width="16.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="81" width="17.12999916" customWidth="1" outlineLevel="0"/>
     <col min="7" max="8" style="81" width="32.25499916" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="81" width="20.62999916" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" style="81" width="16.62999916" customWidth="1" outlineLevel="0"/>
@@ -2968,7 +3215,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="49.200000" customHeight="1">
       <c r="A1" s="162" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
@@ -2988,15 +3235,17 @@
     </row>
     <row r="2" spans="1:19" ht="26.400000" customHeight="1">
       <c r="A2" s="139" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="140"/>
+        <v>327</v>
+      </c>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="139" t="s">
+        <v>328</v>
+      </c>
       <c r="F2" s="140"/>
       <c r="G2" s="140"/>
-      <c r="H2" s="141"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="100" t="s">
         <v>37</v>
       </c>
@@ -3004,7 +3253,7 @@
       <c r="K2" s="100"/>
       <c r="L2" s="100"/>
       <c r="M2" s="101" t="s">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="N2" s="101"/>
       <c r="O2" s="101"/>
@@ -3025,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G3" s="88"/>
       <c r="H3" s="125" t="s">
@@ -3063,7 +3312,7 @@
         <v>167</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="194"/>
@@ -3095,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="G5" s="88"/>
       <c r="H5" s="125"/>
@@ -3121,10 +3370,12 @@
       <c r="B6" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="173" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="176"/>
+      <c r="C6" s="212" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="228" t="s">
+        <v>336</v>
+      </c>
       <c r="E6" s="87" t="s">
         <v>15</v>
       </c>
@@ -3132,7 +3383,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H6" s="125"/>
       <c r="I6" s="87" t="s">
@@ -3159,8 +3410,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="177"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="228"/>
       <c r="E7" s="87" t="s">
         <v>5</v>
       </c>
@@ -3185,15 +3436,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="178"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="228" t="s">
+        <v>337</v>
+      </c>
       <c r="E8" s="87" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="155"/>
-      <c r="G8" s="88" t="s">
-        <v>310</v>
-      </c>
+      <c r="G8" s="88"/>
       <c r="H8" s="125"/>
       <c r="I8" s="87" t="s">
         <v>6</v>
@@ -3211,8 +3462,8 @@
     <row r="9" spans="1:19">
       <c r="A9" s="87"/>
       <c r="B9" s="173"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="228"/>
       <c r="E9" s="87"/>
       <c r="F9" s="155"/>
       <c r="G9" s="88"/>
@@ -3231,7 +3482,9 @@
       <c r="B10" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="172"/>
+      <c r="C10" s="172" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="172"/>
       <c r="E10" s="87"/>
       <c r="F10" s="88" t="s">
@@ -3313,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G13" s="88"/>
       <c r="H13" s="125" t="s">
@@ -3323,10 +3576,16 @@
       <c r="J13" s="183"/>
       <c r="K13" s="183"/>
       <c r="L13" s="183"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
-      <c r="P13" s="183"/>
+      <c r="M13" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="O13" s="88"/>
+      <c r="P13" s="125" t="s">
+        <v>11</v>
+      </c>
       <c r="Q13" s="183"/>
       <c r="R13" s="183"/>
       <c r="S13" s="180"/>
@@ -3352,10 +3611,14 @@
       <c r="J14" s="183"/>
       <c r="K14" s="183"/>
       <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="183"/>
+      <c r="M14" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="N14" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="89"/>
+      <c r="P14" s="194"/>
       <c r="Q14" s="183"/>
       <c r="R14" s="183"/>
       <c r="S14" s="180"/>
@@ -3373,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="88" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G15" s="88"/>
       <c r="H15" s="125"/>
@@ -3381,10 +3644,14 @@
       <c r="J15" s="183"/>
       <c r="K15" s="183"/>
       <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="183"/>
+      <c r="M15" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="O15" s="88"/>
+      <c r="P15" s="125"/>
       <c r="Q15" s="183"/>
       <c r="R15" s="183"/>
       <c r="S15" s="180"/>
@@ -3397,7 +3664,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="87" t="s">
@@ -3407,17 +3674,23 @@
         <v>7</v>
       </c>
       <c r="G16" s="90" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="183"/>
       <c r="J16" s="183"/>
       <c r="K16" s="183"/>
       <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="183"/>
+      <c r="M16" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="155" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="P16" s="125"/>
       <c r="Q16" s="183"/>
       <c r="R16" s="183"/>
       <c r="S16" s="180"/>
@@ -3439,10 +3712,12 @@
       <c r="J17" s="183"/>
       <c r="K17" s="183"/>
       <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="183"/>
+      <c r="M17" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="155"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="125"/>
       <c r="Q17" s="183"/>
       <c r="R17" s="183"/>
       <c r="S17" s="180"/>
@@ -3464,10 +3739,14 @@
       <c r="J18" s="183"/>
       <c r="K18" s="183"/>
       <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="183"/>
+      <c r="M18" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="155"/>
+      <c r="O18" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="P18" s="125"/>
       <c r="Q18" s="183"/>
       <c r="R18" s="183"/>
       <c r="S18" s="180"/>
@@ -3485,10 +3764,10 @@
       <c r="J19" s="183"/>
       <c r="K19" s="183"/>
       <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="183"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="125"/>
       <c r="Q19" s="183"/>
       <c r="R19" s="183"/>
       <c r="S19" s="180"/>
@@ -3498,7 +3777,9 @@
       <c r="B20" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="172"/>
+      <c r="C20" s="172" t="s">
+        <v>86</v>
+      </c>
       <c r="D20" s="88"/>
       <c r="E20" s="87"/>
       <c r="F20" s="88" t="s">
@@ -3510,10 +3791,12 @@
       <c r="J20" s="183"/>
       <c r="K20" s="183"/>
       <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="183"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="88"/>
+      <c r="P20" s="195"/>
       <c r="Q20" s="183"/>
       <c r="R20" s="183"/>
       <c r="S20" s="180"/>
@@ -3535,10 +3818,12 @@
       <c r="J21" s="183"/>
       <c r="K21" s="183"/>
       <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="183"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="88"/>
+      <c r="P21" s="195"/>
       <c r="Q21" s="183"/>
       <c r="R21" s="183"/>
       <c r="S21" s="180"/>
@@ -3556,30 +3841,30 @@
       <c r="J22" s="183"/>
       <c r="K22" s="183"/>
       <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="187"/>
       <c r="Q22" s="183"/>
       <c r="R22" s="183"/>
       <c r="S22" s="180"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="88" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="125" t="s">
+      <c r="B23" s="172" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="172"/>
+      <c r="D23" s="201" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="88" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G23" s="88"/>
       <c r="H23" s="125" t="s">
@@ -3598,14 +3883,14 @@
       <c r="S23" s="180"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="203"/>
       <c r="E24" s="85" t="s">
         <v>167</v>
       </c>
@@ -3627,19 +3912,19 @@
       <c r="S24" s="180"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="125"/>
+      <c r="B25" s="172" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="172"/>
+      <c r="D25" s="201"/>
       <c r="E25" s="86" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="88" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G25" s="88"/>
       <c r="H25" s="125"/>
@@ -3656,24 +3941,24 @@
       <c r="S25" s="180"/>
     </row>
     <row r="26" spans="1:19" ht="25.500000" customHeight="1">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="90" t="s">
-        <v>265</v>
-      </c>
-      <c r="D26" s="125"/>
+      <c r="C26" s="176" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" s="201"/>
       <c r="E26" s="87" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="90" t="s">
-        <v>255</v>
+      <c r="G26" s="88" t="s">
+        <v>258</v>
       </c>
       <c r="H26" s="125"/>
       <c r="I26" s="183"/>
@@ -3688,18 +3973,20 @@
       <c r="R26" s="183"/>
       <c r="S26" s="180"/>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="87" t="s">
+    <row r="27" spans="1:19" ht="25.500000">
+      <c r="A27" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="155"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="125"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="87" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="155"/>
-      <c r="G27" s="92"/>
+      <c r="G27" s="88" t="s">
+        <v>272</v>
+      </c>
       <c r="H27" s="125"/>
       <c r="I27" s="183"/>
       <c r="J27" s="183"/>
@@ -3714,12 +4001,12 @@
       <c r="S27" s="180"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="155"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="125"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="201"/>
       <c r="E28" s="87" t="s">
         <v>6</v>
       </c>
@@ -3739,10 +4026,10 @@
       <c r="S28" s="180"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="87"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="195"/>
+      <c r="A29" s="205"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="206"/>
       <c r="E29" s="87"/>
       <c r="F29" s="155"/>
       <c r="G29" s="88"/>
@@ -3760,12 +4047,12 @@
       <c r="S29" s="180"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="87"/>
-      <c r="B30" s="88" t="s">
+      <c r="A30" s="205"/>
+      <c r="B30" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="195"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="206"/>
       <c r="E30" s="87"/>
       <c r="F30" s="88" t="s">
         <v>19</v>
@@ -3785,12 +4072,12 @@
       <c r="S30" s="180"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="87"/>
-      <c r="B31" s="88" t="s">
+      <c r="A31" s="205"/>
+      <c r="B31" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="195"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="206"/>
       <c r="E31" s="87"/>
       <c r="F31" s="88" t="s">
         <v>14</v>
@@ -3810,10 +4097,10 @@
       <c r="S31" s="180"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="157"/>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
+      <c r="A32" s="207"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="207"/>
       <c r="E32" s="157"/>
       <c r="F32" s="157"/>
       <c r="G32" s="157"/>
@@ -3831,21 +4118,21 @@
       <c r="S32" s="180"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="88" t="s">
-        <v>260</v>
-      </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="125" t="s">
+      <c r="B33" s="172" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="172"/>
+      <c r="D33" s="201" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="88" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="G33" s="88"/>
       <c r="H33" s="125" t="s">
@@ -3864,14 +4151,14 @@
       <c r="S33" s="180"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="194"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="203"/>
       <c r="E34" s="85" t="s">
         <v>167</v>
       </c>
@@ -3893,19 +4180,19 @@
       <c r="S34" s="180"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="125"/>
+      <c r="B35" s="172" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="172"/>
+      <c r="D35" s="201"/>
       <c r="E35" s="86" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="88" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="G35" s="88"/>
       <c r="H35" s="125"/>
@@ -3922,24 +4209,24 @@
       <c r="S35" s="180"/>
     </row>
     <row r="36" spans="1:19" ht="25.500000" customHeight="1">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="155" t="s">
+      <c r="B36" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" s="125"/>
+      <c r="C36" s="176" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="201"/>
       <c r="E36" s="87" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="88" t="s">
-        <v>258</v>
+      <c r="G36" s="90" t="s">
+        <v>279</v>
       </c>
       <c r="H36" s="125"/>
       <c r="I36" s="183"/>
@@ -3955,19 +4242,17 @@
       <c r="S36" s="180"/>
     </row>
     <row r="37" spans="1:19" ht="25.500000">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="155"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="125"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="201"/>
       <c r="E37" s="87" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="155"/>
-      <c r="G37" s="88" t="s">
-        <v>272</v>
-      </c>
+      <c r="G37" s="92"/>
       <c r="H37" s="125"/>
       <c r="I37" s="183"/>
       <c r="J37" s="183"/>
@@ -3982,12 +4267,12 @@
       <c r="S37" s="180"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="125"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="201"/>
       <c r="E38" s="87" t="s">
         <v>6</v>
       </c>
@@ -4007,10 +4292,10 @@
       <c r="S38" s="180"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="87"/>
-      <c r="B39" s="155"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="195"/>
+      <c r="A39" s="205"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="206"/>
       <c r="E39" s="87"/>
       <c r="F39" s="155"/>
       <c r="G39" s="88"/>
@@ -4028,12 +4313,12 @@
       <c r="S39" s="180"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="87"/>
-      <c r="B40" s="88" t="s">
+      <c r="A40" s="205"/>
+      <c r="B40" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="195"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="206"/>
       <c r="E40" s="87"/>
       <c r="F40" s="88" t="s">
         <v>19</v>
@@ -4053,12 +4338,12 @@
       <c r="S40" s="180"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="87"/>
-      <c r="B41" s="88" t="s">
+      <c r="A41" s="205"/>
+      <c r="B41" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="195"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="206"/>
       <c r="E41" s="87"/>
       <c r="F41" s="88" t="s">
         <v>14</v>
@@ -4078,11 +4363,11 @@
       <c r="S41" s="180"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="157"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
+      <c r="A42" s="207"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="209"/>
+      <c r="E42" s="181"/>
       <c r="F42" s="157"/>
       <c r="G42" s="157"/>
       <c r="H42" s="196"/>
@@ -4099,21 +4384,21 @@
       <c r="S42" s="180"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="88" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="125" t="s">
+      <c r="B43" s="172" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="172"/>
+      <c r="D43" s="201" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="88" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="G43" s="88"/>
       <c r="H43" s="125" t="s">
@@ -4132,14 +4417,14 @@
       <c r="S43" s="180"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="194"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="203"/>
       <c r="E44" s="85" t="s">
         <v>167</v>
       </c>
@@ -4161,19 +4446,19 @@
       <c r="S44" s="180"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="125"/>
+      <c r="B45" s="172" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="172"/>
+      <c r="D45" s="201"/>
       <c r="E45" s="86" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="88" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G45" s="88"/>
       <c r="H45" s="125"/>
@@ -4193,13 +4478,13 @@
       <c r="A46" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="155" t="s">
+      <c r="B46" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="90" t="s">
-        <v>284</v>
-      </c>
-      <c r="D46" s="125"/>
+      <c r="C46" s="176" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="201"/>
       <c r="E46" s="87" t="s">
         <v>15</v>
       </c>
@@ -4207,7 +4492,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="90" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="H46" s="125"/>
       <c r="I46" s="183"/>
@@ -4226,9 +4511,9 @@
       <c r="A47" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="155"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="125"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="201"/>
       <c r="E47" s="87" t="s">
         <v>5</v>
       </c>
@@ -4251,9 +4536,9 @@
       <c r="A48" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="155"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="125"/>
+      <c r="B48" s="173"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="201"/>
       <c r="E48" s="87" t="s">
         <v>6</v>
       </c>
@@ -4274,9 +4559,9 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="87"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="195"/>
+      <c r="B49" s="173"/>
+      <c r="C49" s="172"/>
+      <c r="D49" s="206"/>
       <c r="E49" s="87"/>
       <c r="F49" s="155"/>
       <c r="G49" s="88"/>
@@ -4295,11 +4580,11 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="87"/>
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="88"/>
-      <c r="D50" s="195"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="206"/>
       <c r="E50" s="87"/>
       <c r="F50" s="88" t="s">
         <v>19</v>
@@ -4320,11 +4605,11 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="87"/>
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="195"/>
+      <c r="C51" s="172"/>
+      <c r="D51" s="206"/>
       <c r="E51" s="87"/>
       <c r="F51" s="88" t="s">
         <v>14</v>
@@ -4344,10 +4629,10 @@
       <c r="S51" s="180"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="181"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="A52" s="207"/>
+      <c r="B52" s="208"/>
+      <c r="C52" s="208"/>
+      <c r="D52" s="209"/>
       <c r="E52" s="181"/>
       <c r="F52" s="157"/>
       <c r="G52" s="157"/>
@@ -4365,21 +4650,21 @@
       <c r="S52" s="180"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="C53" s="88"/>
-      <c r="D53" s="125" t="s">
+      <c r="B53" s="172" t="s">
+        <v>319</v>
+      </c>
+      <c r="C53" s="172"/>
+      <c r="D53" s="201" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="88" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="G53" s="88"/>
       <c r="H53" s="125" t="s">
@@ -4398,14 +4683,14 @@
       <c r="S53" s="180"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="194"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="203"/>
       <c r="E54" s="85" t="s">
         <v>167</v>
       </c>
@@ -4427,19 +4712,19 @@
       <c r="S54" s="180"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="86" t="s">
+      <c r="A55" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="C55" s="88"/>
-      <c r="D55" s="125"/>
+      <c r="B55" s="172" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="172"/>
+      <c r="D55" s="201"/>
       <c r="E55" s="86" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="88" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="G55" s="88"/>
       <c r="H55" s="125"/>
@@ -4459,20 +4744,22 @@
       <c r="A56" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="155" t="s">
+      <c r="B56" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="90" t="s">
-        <v>288</v>
-      </c>
-      <c r="D56" s="125"/>
+      <c r="C56" s="176" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" s="201"/>
       <c r="E56" s="87" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="G56" s="90"/>
+      <c r="G56" s="90" t="s">
+        <v>265</v>
+      </c>
       <c r="H56" s="125"/>
       <c r="I56" s="183"/>
       <c r="J56" s="183"/>
@@ -4490,9 +4777,9 @@
       <c r="A57" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="155"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="125"/>
+      <c r="B57" s="173"/>
+      <c r="C57" s="178"/>
+      <c r="D57" s="201"/>
       <c r="E57" s="87" t="s">
         <v>5</v>
       </c>
@@ -4515,9 +4802,9 @@
       <c r="A58" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="155"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="125"/>
+      <c r="B58" s="173"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="201"/>
       <c r="E58" s="87" t="s">
         <v>6</v>
       </c>
@@ -4538,9 +4825,9 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="87"/>
-      <c r="B59" s="155"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="195"/>
+      <c r="B59" s="173"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="206"/>
       <c r="E59" s="87"/>
       <c r="F59" s="155"/>
       <c r="G59" s="88"/>
@@ -4559,11 +4846,11 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="87"/>
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="195"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="206"/>
       <c r="E60" s="87"/>
       <c r="F60" s="88" t="s">
         <v>19</v>
@@ -4584,11 +4871,11 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="87"/>
-      <c r="B61" s="88" t="s">
+      <c r="B61" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="195"/>
+      <c r="C61" s="172"/>
+      <c r="D61" s="206"/>
       <c r="E61" s="87"/>
       <c r="F61" s="88" t="s">
         <v>14</v>
@@ -4612,10 +4899,10 @@
       <c r="B62" s="157"/>
       <c r="C62" s="157"/>
       <c r="D62" s="196"/>
-      <c r="E62" s="181"/>
+      <c r="E62" s="157"/>
       <c r="F62" s="157"/>
       <c r="G62" s="157"/>
-      <c r="H62" s="196"/>
+      <c r="H62" s="157"/>
       <c r="I62" s="183"/>
       <c r="J62" s="183"/>
       <c r="K62" s="183"/>
@@ -4629,21 +4916,21 @@
       <c r="S62" s="180"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="200" t="s">
+      <c r="A63" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="172" t="s">
-        <v>301</v>
-      </c>
-      <c r="C63" s="172"/>
-      <c r="D63" s="201" t="s">
+      <c r="B63" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="88"/>
+      <c r="D63" s="125" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F63" s="88" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="G63" s="88"/>
       <c r="H63" s="125" t="s">
@@ -4662,14 +4949,14 @@
       <c r="S63" s="180"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="202" t="s">
+      <c r="A64" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="B64" s="174" t="s">
+      <c r="B64" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="174"/>
-      <c r="D64" s="203"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="194"/>
       <c r="E64" s="85" t="s">
         <v>167</v>
       </c>
@@ -4680,34 +4967,34 @@
       <c r="H64" s="194"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="204" t="s">
+      <c r="A65" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="172" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="172"/>
-      <c r="D65" s="201"/>
+      <c r="B65" s="88" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" s="88"/>
+      <c r="D65" s="125"/>
       <c r="E65" s="86" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="88" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G65" s="88"/>
       <c r="H65" s="125"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="205" t="s">
+      <c r="A66" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="173" t="s">
+      <c r="B66" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="176" t="s">
-        <v>295</v>
-      </c>
-      <c r="D66" s="201"/>
+      <c r="C66" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" s="125"/>
       <c r="E66" s="87" t="s">
         <v>15</v>
       </c>
@@ -4715,17 +5002,17 @@
         <v>7</v>
       </c>
       <c r="G66" s="90" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="H66" s="125"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="205" t="s">
+      <c r="A67" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="173"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="201"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="125"/>
       <c r="E67" s="87" t="s">
         <v>5</v>
       </c>
@@ -4734,12 +5021,12 @@
       <c r="H67" s="125"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="205" t="s">
+      <c r="A68" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="173"/>
-      <c r="C68" s="172"/>
-      <c r="D68" s="201"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="125"/>
       <c r="E68" s="87" t="s">
         <v>6</v>
       </c>
@@ -4748,22 +5035,22 @@
       <c r="H68" s="125"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="205"/>
-      <c r="B69" s="173"/>
-      <c r="C69" s="172"/>
-      <c r="D69" s="206"/>
+      <c r="A69" s="87"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="195"/>
       <c r="E69" s="87"/>
       <c r="F69" s="155"/>
       <c r="G69" s="88"/>
       <c r="H69" s="195"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="205"/>
-      <c r="B70" s="172" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="172"/>
-      <c r="D70" s="206"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="195"/>
       <c r="E70" s="87"/>
       <c r="F70" s="88" t="s">
         <v>19</v>
@@ -4772,12 +5059,12 @@
       <c r="H70" s="195"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="205"/>
-      <c r="B71" s="172" t="s">
+      <c r="A71" s="87"/>
+      <c r="B71" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="172"/>
-      <c r="D71" s="206"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="195"/>
       <c r="E71" s="87"/>
       <c r="F71" s="88" t="s">
         <v>14</v>
@@ -4786,31 +5073,31 @@
       <c r="H71" s="195"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="207"/>
-      <c r="B72" s="207"/>
-      <c r="C72" s="207"/>
-      <c r="D72" s="207"/>
-      <c r="E72" s="181"/>
+      <c r="A72" s="181"/>
+      <c r="B72" s="157"/>
+      <c r="C72" s="157"/>
+      <c r="D72" s="196"/>
+      <c r="E72" s="157"/>
       <c r="F72" s="157"/>
       <c r="G72" s="157"/>
-      <c r="H72" s="196"/>
+      <c r="H72" s="157"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="200" t="s">
+      <c r="A73" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="172" t="s">
-        <v>293</v>
-      </c>
-      <c r="C73" s="172"/>
-      <c r="D73" s="201" t="s">
+      <c r="B73" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="88"/>
+      <c r="D73" s="125" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F73" s="88" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="G73" s="88"/>
       <c r="H73" s="125" t="s">
@@ -4818,14 +5105,14 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="202" t="s">
+      <c r="A74" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="174" t="s">
+      <c r="B74" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="174"/>
-      <c r="D74" s="203"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="194"/>
       <c r="E74" s="85" t="s">
         <v>167</v>
       </c>
@@ -4836,50 +5123,52 @@
       <c r="H74" s="194"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="204" t="s">
+      <c r="A75" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="172" t="s">
-        <v>294</v>
-      </c>
-      <c r="C75" s="172"/>
-      <c r="D75" s="201"/>
+      <c r="B75" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" s="88"/>
+      <c r="D75" s="125"/>
       <c r="E75" s="86" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="88" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="G75" s="88"/>
       <c r="H75" s="125"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="205" t="s">
+      <c r="A76" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="173" t="s">
+      <c r="B76" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="176" t="s">
-        <v>297</v>
-      </c>
-      <c r="D76" s="201"/>
+      <c r="C76" s="90" t="s">
+        <v>339</v>
+      </c>
+      <c r="D76" s="125"/>
       <c r="E76" s="87" t="s">
         <v>15</v>
       </c>
       <c r="F76" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="90"/>
+      <c r="G76" s="90" t="s">
+        <v>284</v>
+      </c>
       <c r="H76" s="125"/>
     </row>
     <row r="77" spans="1:8" ht="25.500000">
-      <c r="A77" s="205" t="s">
+      <c r="A77" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="173"/>
-      <c r="C77" s="178"/>
-      <c r="D77" s="201"/>
+      <c r="B77" s="155"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="87" t="s">
         <v>5</v>
       </c>
@@ -4888,12 +5177,12 @@
       <c r="H77" s="125"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="205" t="s">
+      <c r="A78" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="173"/>
-      <c r="C78" s="172"/>
-      <c r="D78" s="201"/>
+      <c r="B78" s="155"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="125"/>
       <c r="E78" s="87" t="s">
         <v>6</v>
       </c>
@@ -4902,22 +5191,22 @@
       <c r="H78" s="125"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="205"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="172"/>
-      <c r="D79" s="206"/>
+      <c r="A79" s="87"/>
+      <c r="B79" s="155"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="195"/>
       <c r="E79" s="87"/>
       <c r="F79" s="155"/>
       <c r="G79" s="88"/>
       <c r="H79" s="195"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="205"/>
-      <c r="B80" s="172" t="s">
+      <c r="A80" s="87"/>
+      <c r="B80" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="172"/>
-      <c r="D80" s="206"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="195"/>
       <c r="E80" s="87"/>
       <c r="F80" s="88" t="s">
         <v>19</v>
@@ -4926,12 +5215,12 @@
       <c r="H80" s="195"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="205"/>
-      <c r="B81" s="172" t="s">
+      <c r="A81" s="87"/>
+      <c r="B81" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="172"/>
-      <c r="D81" s="206"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="195"/>
       <c r="E81" s="87"/>
       <c r="F81" s="88" t="s">
         <v>14</v>
@@ -4940,34 +5229,34 @@
       <c r="H81" s="195"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="207"/>
-      <c r="B82" s="208"/>
-      <c r="C82" s="208"/>
-      <c r="D82" s="209"/>
+      <c r="A82" s="181"/>
+      <c r="B82" s="157"/>
+      <c r="C82" s="157"/>
+      <c r="D82" s="196"/>
       <c r="E82" s="181"/>
-      <c r="F82" s="157"/>
-      <c r="G82" s="157"/>
-      <c r="H82" s="196"/>
+      <c r="F82" s="181"/>
+      <c r="G82" s="181"/>
+      <c r="H82" s="181"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="200" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="172" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C83" s="172"/>
       <c r="D83" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="200" t="s">
+      <c r="E83" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="F83" s="172" t="s">
-        <v>314</v>
-      </c>
-      <c r="G83" s="172"/>
-      <c r="H83" s="201" t="s">
+      <c r="F83" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="G83" s="88"/>
+      <c r="H83" s="125" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4980,32 +5269,32 @@
       </c>
       <c r="C84" s="174"/>
       <c r="D84" s="203"/>
-      <c r="E84" s="202" t="s">
+      <c r="E84" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="F84" s="174" t="s">
+      <c r="F84" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="G84" s="174"/>
-      <c r="H84" s="203"/>
+      <c r="G84" s="89"/>
+      <c r="H84" s="194"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="204" t="s">
         <v>2</v>
       </c>
       <c r="B85" s="172" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C85" s="172"/>
       <c r="D85" s="201"/>
-      <c r="E85" s="204" t="s">
+      <c r="E85" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="F85" s="172" t="s">
-        <v>314</v>
-      </c>
-      <c r="G85" s="172"/>
-      <c r="H85" s="201"/>
+      <c r="F85" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="G85" s="88"/>
+      <c r="H85" s="125"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="87" t="s">
@@ -5015,19 +5304,19 @@
         <v>7</v>
       </c>
       <c r="C86" s="176" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D86" s="201"/>
       <c r="E86" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="173" t="s">
+      <c r="F86" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="176" t="s">
-        <v>315</v>
-      </c>
-      <c r="H86" s="201"/>
+      <c r="G86" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="H86" s="125"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="87" t="s">
@@ -5039,9 +5328,9 @@
       <c r="E87" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F87" s="173"/>
-      <c r="G87" s="178"/>
-      <c r="H87" s="201"/>
+      <c r="F87" s="155"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="125"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="87" t="s">
@@ -5053,9 +5342,9 @@
       <c r="E88" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F88" s="173"/>
-      <c r="G88" s="172"/>
-      <c r="H88" s="201"/>
+      <c r="F88" s="155"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="125"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="87"/>
@@ -5063,9 +5352,9 @@
       <c r="C89" s="172"/>
       <c r="D89" s="206"/>
       <c r="E89" s="87"/>
-      <c r="F89" s="173"/>
-      <c r="G89" s="172"/>
-      <c r="H89" s="206"/>
+      <c r="F89" s="155"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="195"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="87"/>
@@ -5075,11 +5364,11 @@
       <c r="C90" s="172"/>
       <c r="D90" s="206"/>
       <c r="E90" s="87"/>
-      <c r="F90" s="172" t="s">
+      <c r="F90" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="172"/>
-      <c r="H90" s="206"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="195"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="87"/>
@@ -5089,170 +5378,145 @@
       <c r="C91" s="172"/>
       <c r="D91" s="206"/>
       <c r="E91" s="87"/>
-      <c r="F91" s="172" t="s">
+      <c r="F91" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="G91" s="172"/>
-      <c r="H91" s="206"/>
+      <c r="G91" s="88"/>
+      <c r="H91" s="195"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="207"/>
-      <c r="B92" s="208"/>
-      <c r="C92" s="208"/>
-      <c r="D92" s="209"/>
+      <c r="A92" s="181"/>
+      <c r="B92" s="252"/>
+      <c r="C92" s="252"/>
+      <c r="D92" s="253"/>
       <c r="E92" s="181"/>
       <c r="F92" s="157"/>
       <c r="G92" s="157"/>
       <c r="H92" s="196"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="200" t="s">
+      <c r="A93" s="247"/>
+      <c r="B93" s="247"/>
+      <c r="C93" s="247"/>
+      <c r="D93" s="248"/>
+      <c r="E93" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="172" t="s">
-        <v>319</v>
-      </c>
-      <c r="C93" s="172"/>
-      <c r="D93" s="201" t="s">
+      <c r="F93" s="88" t="s">
+        <v>331</v>
+      </c>
+      <c r="G93" s="88"/>
+      <c r="H93" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="F93" s="172" t="s">
-        <v>322</v>
-      </c>
-      <c r="G93" s="172"/>
-      <c r="H93" s="201" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="202" t="s">
+      <c r="A94" s="247"/>
+      <c r="B94" s="249"/>
+      <c r="C94" s="249"/>
+      <c r="D94" s="250"/>
+      <c r="E94" s="255" t="s">
         <v>167</v>
       </c>
-      <c r="B94" s="174" t="s">
+      <c r="F94" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="C94" s="174"/>
-      <c r="D94" s="203"/>
-      <c r="E94" s="202" t="s">
-        <v>167</v>
-      </c>
-      <c r="F94" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="G94" s="174"/>
-      <c r="H94" s="203"/>
+      <c r="G94" s="89"/>
+      <c r="H94" s="194"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="204" t="s">
+      <c r="A95" s="247"/>
+      <c r="B95" s="247"/>
+      <c r="C95" s="247"/>
+      <c r="D95" s="248"/>
+      <c r="E95" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="172" t="s">
-        <v>319</v>
-      </c>
-      <c r="C95" s="172"/>
-      <c r="D95" s="201"/>
-      <c r="E95" s="204" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="172" t="s">
-        <v>322</v>
-      </c>
-      <c r="G95" s="172"/>
-      <c r="H95" s="201"/>
+      <c r="F95" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="G95" s="88"/>
+      <c r="H95" s="125"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="87" t="s">
+      <c r="A96" s="251"/>
+      <c r="B96" s="248"/>
+      <c r="C96" s="248"/>
+      <c r="D96" s="248"/>
+      <c r="E96" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="173" t="s">
+      <c r="F96" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="176" t="s">
-        <v>321</v>
-      </c>
-      <c r="D96" s="201"/>
-      <c r="E96" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="173" t="s">
-        <v>7</v>
-      </c>
-      <c r="G96" s="176"/>
-      <c r="H96" s="201"/>
+      <c r="G96" s="90" t="s">
+        <v>334</v>
+      </c>
+      <c r="H96" s="125"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="87" t="s">
+      <c r="A97" s="251"/>
+      <c r="B97" s="248"/>
+      <c r="C97" s="248"/>
+      <c r="D97" s="248"/>
+      <c r="E97" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="173"/>
-      <c r="C97" s="178"/>
-      <c r="D97" s="201"/>
-      <c r="E97" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" s="173"/>
-      <c r="G97" s="178"/>
-      <c r="H97" s="201"/>
+      <c r="F97" s="155"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="125"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="87" t="s">
+      <c r="A98" s="251"/>
+      <c r="B98" s="248"/>
+      <c r="C98" s="247"/>
+      <c r="D98" s="248"/>
+      <c r="E98" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="173"/>
-      <c r="C98" s="172"/>
-      <c r="D98" s="201"/>
-      <c r="E98" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="173"/>
-      <c r="G98" s="172"/>
-      <c r="H98" s="201"/>
+      <c r="F98" s="155"/>
+      <c r="G98" s="88"/>
+      <c r="H98" s="125"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="87"/>
-      <c r="B99" s="173"/>
-      <c r="C99" s="172"/>
-      <c r="D99" s="206"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="173"/>
-      <c r="G99" s="172"/>
-      <c r="H99" s="206"/>
+      <c r="A99" s="251"/>
+      <c r="B99" s="248"/>
+      <c r="C99" s="247"/>
+      <c r="D99" s="247"/>
+      <c r="E99" s="257"/>
+      <c r="F99" s="155"/>
+      <c r="G99" s="88"/>
+      <c r="H99" s="195"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="87"/>
-      <c r="B100" s="172" t="s">
+      <c r="A100" s="251"/>
+      <c r="B100" s="247"/>
+      <c r="C100" s="247"/>
+      <c r="D100" s="247"/>
+      <c r="E100" s="257"/>
+      <c r="F100" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="172"/>
-      <c r="D100" s="206"/>
-      <c r="E100" s="87"/>
-      <c r="F100" s="172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="172"/>
-      <c r="H100" s="206"/>
+      <c r="G100" s="88"/>
+      <c r="H100" s="195"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="87"/>
-      <c r="B101" s="172" t="s">
+      <c r="A101" s="251"/>
+      <c r="B101" s="247"/>
+      <c r="C101" s="247"/>
+      <c r="D101" s="247"/>
+      <c r="E101" s="257"/>
+      <c r="F101" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="172"/>
-      <c r="D101" s="206"/>
-      <c r="E101" s="87"/>
-      <c r="F101" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="172"/>
-      <c r="H101" s="206"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="195"/>
     </row>
   </sheetData>
-  <mergeCells count="178">
+  <mergeCells count="190">
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="B3:C3"/>
@@ -5273,8 +5537,8 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E11"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="G6:G7"/>
@@ -5286,14 +5550,19 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P8"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:H15"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:P15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="N15:O15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C16:C19"/>
@@ -5302,6 +5571,12 @@
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H18"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="F23:G23"/>
@@ -5316,7 +5591,6 @@
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:D35"/>
@@ -5332,6 +5606,7 @@
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="E36:E41"/>
     <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G37"/>
     <mergeCell ref="H36:H38"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:D45"/>

--- a/Project_Design/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="사용자 요구사항 분석서" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -1050,6 +1050,30 @@
   </si>
   <si>
     <t>-칠판 / 메모장에서 사용하는 펜으로, 굵기,색상 등을 변경할 수 있도록 함</t>
+  </si>
+  <si>
+    <t>학교 소개</t>
+  </si>
+  <si>
+    <t>학교 부서 소개</t>
+  </si>
+  <si>
+    <t>-학교와 각 부서들의 역할을 소개함</t>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판</t>
+  </si>
+  <si>
+    <t>-궁금한 점이 있다면 Q&amp;A를 통해 답변할 수 있도록 함</t>
+  </si>
+  <si>
+    <t>-궁금한 점이 있다면 Q&amp;A를 통해 답변받을 수 있도록 함</t>
+  </si>
+  <si>
+    <t>Q&amp;A 답변</t>
+  </si>
+  <si>
+    <t>-사용자가 질문한 글에 각 부서 담당자가 답변ㄴ할 수 있게 함</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1905,37 +1929,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2096,7 +2089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2784,31 +2777,28 @@
     <xf numFmtId="49" fontId="20" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="46" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="46" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="20" fillId="46" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="46" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="46" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="46" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2838,38 +2828,38 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="64" fontId="0" fillId="44" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" fillId="44" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="20" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="64" fontId="0" fillId="44" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="20" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="64" fontId="20" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="64" fontId="20" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="64" fontId="20" fillId="34" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="64" fontId="20" fillId="34" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="64" fontId="20" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="64" fontId="20" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="46" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3189,10 +3179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A55" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3283,7 +3273,9 @@
       <c r="I3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="88"/>
+      <c r="J3" s="88" t="s">
+        <v>347</v>
+      </c>
       <c r="K3" s="88"/>
       <c r="L3" s="155" t="s">
         <v>11</v>
@@ -3319,7 +3311,9 @@
       <c r="I4" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="89" t="s">
+        <v>76</v>
+      </c>
       <c r="K4" s="89"/>
       <c r="L4" s="156"/>
       <c r="M4" s="85" t="s">
@@ -3351,7 +3345,9 @@
       <c r="I5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="88" t="s">
+        <v>347</v>
+      </c>
       <c r="K5" s="88"/>
       <c r="L5" s="155"/>
       <c r="M5" s="86" t="s">
@@ -3392,7 +3388,9 @@
       <c r="J6" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="88"/>
+      <c r="K6" s="88" t="s">
+        <v>348</v>
+      </c>
       <c r="L6" s="90"/>
       <c r="M6" s="87" t="s">
         <v>15</v>
@@ -5386,20 +5384,26 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="181"/>
-      <c r="B92" s="252"/>
-      <c r="C92" s="252"/>
-      <c r="D92" s="253"/>
+      <c r="B92" s="181"/>
+      <c r="C92" s="181"/>
+      <c r="D92" s="251"/>
       <c r="E92" s="181"/>
       <c r="F92" s="157"/>
       <c r="G92" s="157"/>
       <c r="H92" s="196"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="247"/>
-      <c r="B93" s="247"/>
-      <c r="C93" s="247"/>
-      <c r="D93" s="248"/>
-      <c r="E93" s="254" t="s">
+      <c r="A93" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="172" t="s">
+        <v>341</v>
+      </c>
+      <c r="C93" s="172"/>
+      <c r="D93" s="201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="252" t="s">
         <v>0</v>
       </c>
       <c r="F93" s="88" t="s">
@@ -5411,11 +5415,15 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="247"/>
-      <c r="B94" s="249"/>
-      <c r="C94" s="249"/>
-      <c r="D94" s="250"/>
-      <c r="E94" s="255" t="s">
+      <c r="A94" s="202" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="174" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="174"/>
+      <c r="D94" s="203"/>
+      <c r="E94" s="253" t="s">
         <v>167</v>
       </c>
       <c r="F94" s="89" t="s">
@@ -5425,11 +5433,15 @@
       <c r="H94" s="194"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="247"/>
-      <c r="B95" s="247"/>
-      <c r="C95" s="247"/>
-      <c r="D95" s="248"/>
-      <c r="E95" s="256" t="s">
+      <c r="A95" s="204" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="172" t="s">
+        <v>342</v>
+      </c>
+      <c r="C95" s="172"/>
+      <c r="D95" s="201"/>
+      <c r="E95" s="254" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="88" t="s">
@@ -5439,11 +5451,17 @@
       <c r="H95" s="125"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="251"/>
-      <c r="B96" s="248"/>
-      <c r="C96" s="248"/>
-      <c r="D96" s="248"/>
-      <c r="E96" s="257" t="s">
+      <c r="A96" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="176" t="s">
+        <v>343</v>
+      </c>
+      <c r="D96" s="201"/>
+      <c r="E96" s="255" t="s">
         <v>15</v>
       </c>
       <c r="F96" s="155" t="s">
@@ -5455,11 +5473,13 @@
       <c r="H96" s="125"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="251"/>
-      <c r="B97" s="248"/>
-      <c r="C97" s="248"/>
-      <c r="D97" s="248"/>
-      <c r="E97" s="257" t="s">
+      <c r="A97" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="173"/>
+      <c r="C97" s="178"/>
+      <c r="D97" s="201"/>
+      <c r="E97" s="255" t="s">
         <v>5</v>
       </c>
       <c r="F97" s="155"/>
@@ -5467,11 +5487,13 @@
       <c r="H97" s="125"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="251"/>
-      <c r="B98" s="248"/>
-      <c r="C98" s="247"/>
-      <c r="D98" s="248"/>
-      <c r="E98" s="257" t="s">
+      <c r="A98" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="173"/>
+      <c r="C98" s="172"/>
+      <c r="D98" s="201"/>
+      <c r="E98" s="255" t="s">
         <v>6</v>
       </c>
       <c r="F98" s="155"/>
@@ -5479,21 +5501,23 @@
       <c r="H98" s="125"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="251"/>
-      <c r="B99" s="248"/>
-      <c r="C99" s="247"/>
-      <c r="D99" s="247"/>
-      <c r="E99" s="257"/>
+      <c r="A99" s="87"/>
+      <c r="B99" s="173"/>
+      <c r="C99" s="172"/>
+      <c r="D99" s="206"/>
+      <c r="E99" s="255"/>
       <c r="F99" s="155"/>
       <c r="G99" s="88"/>
       <c r="H99" s="195"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="251"/>
-      <c r="B100" s="247"/>
-      <c r="C100" s="247"/>
-      <c r="D100" s="247"/>
-      <c r="E100" s="257"/>
+      <c r="A100" s="87"/>
+      <c r="B100" s="172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="172"/>
+      <c r="D100" s="206"/>
+      <c r="E100" s="255"/>
       <c r="F100" s="88" t="s">
         <v>19</v>
       </c>
@@ -5501,19 +5525,187 @@
       <c r="H100" s="195"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="251"/>
-      <c r="B101" s="247"/>
-      <c r="C101" s="247"/>
-      <c r="D101" s="247"/>
-      <c r="E101" s="257"/>
+      <c r="A101" s="87"/>
+      <c r="B101" s="172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="172"/>
+      <c r="D101" s="206"/>
+      <c r="E101" s="255"/>
       <c r="F101" s="88" t="s">
         <v>14</v>
       </c>
       <c r="G101" s="88"/>
       <c r="H101" s="195"/>
     </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="181"/>
+      <c r="B102" s="181"/>
+      <c r="C102" s="181"/>
+      <c r="D102" s="251"/>
+      <c r="E102" s="181"/>
+      <c r="F102" s="157"/>
+      <c r="G102" s="157"/>
+      <c r="H102" s="196"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="172" t="s">
+        <v>344</v>
+      </c>
+      <c r="C103" s="172"/>
+      <c r="D103" s="201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="172" t="s">
+        <v>341</v>
+      </c>
+      <c r="G103" s="172"/>
+      <c r="H103" s="201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="202" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="174" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="174"/>
+      <c r="D104" s="203"/>
+      <c r="E104" s="202" t="s">
+        <v>167</v>
+      </c>
+      <c r="F104" s="174" t="s">
+        <v>76</v>
+      </c>
+      <c r="G104" s="174"/>
+      <c r="H104" s="203"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="204" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="172" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" s="172"/>
+      <c r="D105" s="201"/>
+      <c r="E105" s="204" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="172" t="s">
+        <v>342</v>
+      </c>
+      <c r="G105" s="172"/>
+      <c r="H105" s="201"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="176" t="s">
+        <v>346</v>
+      </c>
+      <c r="D106" s="201"/>
+      <c r="E106" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="176" t="s">
+        <v>343</v>
+      </c>
+      <c r="H106" s="201"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="173"/>
+      <c r="C107" s="178"/>
+      <c r="D107" s="201"/>
+      <c r="E107" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="173"/>
+      <c r="G107" s="178"/>
+      <c r="H107" s="201"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="173"/>
+      <c r="C108" s="172"/>
+      <c r="D108" s="201"/>
+      <c r="E108" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="173"/>
+      <c r="G108" s="172"/>
+      <c r="H108" s="201"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="87"/>
+      <c r="B109" s="173"/>
+      <c r="C109" s="172"/>
+      <c r="D109" s="206"/>
+      <c r="E109" s="87"/>
+      <c r="F109" s="173"/>
+      <c r="G109" s="172"/>
+      <c r="H109" s="206"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="87"/>
+      <c r="B110" s="172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="172"/>
+      <c r="D110" s="206"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="172" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="172"/>
+      <c r="H110" s="206"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="87"/>
+      <c r="B111" s="172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="172"/>
+      <c r="D111" s="206"/>
+      <c r="E111" s="87"/>
+      <c r="F111" s="172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="172"/>
+      <c r="H111" s="206"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="181"/>
+      <c r="B112" s="181"/>
+      <c r="C112" s="181"/>
+      <c r="D112" s="251"/>
+      <c r="E112" s="181"/>
+      <c r="F112" s="181"/>
+      <c r="G112" s="181"/>
+      <c r="H112" s="251"/>
+    </row>
   </sheetData>
-  <mergeCells count="190">
+  <mergeCells count="206">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -5704,6 +5896,22 @@
     <mergeCell ref="F96:F99"/>
     <mergeCell ref="G96:G97"/>
     <mergeCell ref="H96:H98"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/Project_Design/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -1074,6 +1074,15 @@
   </si>
   <si>
     <t>-사용자가 질문한 글에 각 부서 담당자가 답변ㄴ할 수 있게 함</t>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판 질문</t>
+  </si>
+  <si>
+    <t>ㅍ</t>
+  </si>
+  <si>
+    <t>바기능</t>
   </si>
 </sst>
 </file>
@@ -3181,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView topLeftCell="A82" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5419,7 +5428,7 @@
         <v>167</v>
       </c>
       <c r="B94" s="174" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C94" s="174"/>
       <c r="D94" s="203"/>
@@ -5553,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="B103" s="172" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C103" s="172"/>
       <c r="D103" s="201" t="s">
@@ -5593,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="172" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C105" s="172"/>
       <c r="D105" s="201"/>

--- a/Project_Design/요구 사항 분석서.xlsx
+++ b/Project_Design/요구 사항 분석서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="사용자 요구사항 분석서" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -1083,6 +1083,12 @@
   </si>
   <si>
     <t>바기능</t>
+  </si>
+  <si>
+    <t>각 부서 위치 표시</t>
+  </si>
+  <si>
+    <t>-학교와 각 부서들의 위치를 화면에 표시함</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1316,7 @@
       <color theme="0"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1581,12 +1587,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.150000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2867,7 +2867,7 @@
     <xf numFmtId="64" fontId="20" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="64" fontId="0" fillId="46" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="64" fontId="0" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3188,10 +3188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:C95"/>
+    <sheetView topLeftCell="A85" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116:G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5713,8 +5713,96 @@
       <c r="G112" s="181"/>
       <c r="H112" s="251"/>
     </row>
+    <row r="113" spans="5:8">
+      <c r="E113" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="172" t="s">
+        <v>352</v>
+      </c>
+      <c r="G113" s="172"/>
+      <c r="H113" s="201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8">
+      <c r="E114" s="202" t="s">
+        <v>167</v>
+      </c>
+      <c r="F114" s="174" t="s">
+        <v>76</v>
+      </c>
+      <c r="G114" s="174"/>
+      <c r="H114" s="203"/>
+    </row>
+    <row r="115" spans="5:8">
+      <c r="E115" s="204" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="172" t="s">
+        <v>352</v>
+      </c>
+      <c r="G115" s="172"/>
+      <c r="H115" s="201"/>
+    </row>
+    <row r="116" spans="5:8">
+      <c r="E116" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="H116" s="201"/>
+    </row>
+    <row r="117" spans="5:8">
+      <c r="E117" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="173"/>
+      <c r="G117" s="178"/>
+      <c r="H117" s="201"/>
+    </row>
+    <row r="118" spans="5:8">
+      <c r="E118" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="173"/>
+      <c r="G118" s="172"/>
+      <c r="H118" s="201"/>
+    </row>
+    <row r="119" spans="5:8">
+      <c r="E119" s="87"/>
+      <c r="F119" s="173"/>
+      <c r="G119" s="172"/>
+      <c r="H119" s="206"/>
+    </row>
+    <row r="120" spans="5:8">
+      <c r="E120" s="87"/>
+      <c r="F120" s="172" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="172"/>
+      <c r="H120" s="206"/>
+    </row>
+    <row r="121" spans="5:8">
+      <c r="E121" s="87"/>
+      <c r="F121" s="172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="172"/>
+      <c r="H121" s="206"/>
+    </row>
+    <row r="122" spans="5:8">
+      <c r="E122" s="181"/>
+      <c r="F122" s="181"/>
+      <c r="G122" s="181"/>
+      <c r="H122" s="251"/>
+    </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="214">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -5921,6 +6009,14 @@
     <mergeCell ref="F106:F109"/>
     <mergeCell ref="G106:G107"/>
     <mergeCell ref="H106:H108"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="E116:E121"/>
+    <mergeCell ref="F116:F119"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H118"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
